--- a/OREI_files/10-herd data/excel files for data organization/missing_pattern_excel.xlsx
+++ b/OREI_files/10-herd data/excel files for data organization/missing_pattern_excel.xlsx
@@ -1,27 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/10-herd data/excel files for data organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3A26D7C6-E187-4A6C-A229-ED4C76E8E702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:40009_{3A26D7C6-E187-4A6C-A229-ED4C76E8E702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CD40696-DF2B-4CBE-A7BA-05965917CCE7}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="missing_pattern" sheetId="1" r:id="rId1"/>
     <sheet name="R output" sheetId="2" r:id="rId2"/>
+    <sheet name="notes from inc df" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="70">
   <si>
     <t>Var1</t>
   </si>
@@ -165,13 +176,79 @@
   </si>
   <si>
     <t>sum of quarters that are as "complete" as possible</t>
+  </si>
+  <si>
+    <t>notes from making dataframe with 10-herd data 11.29.2022</t>
+  </si>
+  <si>
+    <t>obs. w/data for first visit + obs. w/data for second visit</t>
+  </si>
+  <si>
+    <t>NA + obs. w/data for second visit</t>
+  </si>
+  <si>
+    <t>"=" 1324</t>
+  </si>
+  <si>
+    <t>"=" 84</t>
+  </si>
+  <si>
+    <t>obs. w/data for first visit + NA</t>
+  </si>
+  <si>
+    <t>dataframe for 1 and 2 combined</t>
+  </si>
+  <si>
+    <t>"=" 76</t>
+  </si>
+  <si>
+    <t>dataframe for 2 and 3 combined</t>
+  </si>
+  <si>
+    <t>obs. w/data for second visit + obs. w/data for third visit</t>
+  </si>
+  <si>
+    <t>"=" 1216</t>
+  </si>
+  <si>
+    <t>NA + obs. w/data for third visit</t>
+  </si>
+  <si>
+    <t>"=" 44</t>
+  </si>
+  <si>
+    <t>obs. w/data for second visit + NA</t>
+  </si>
+  <si>
+    <t>"=" 192</t>
+  </si>
+  <si>
+    <t>dataframe for 3 and 4 combined</t>
+  </si>
+  <si>
+    <t>obs. w/data for third visit + obs. w/data for fourth visit</t>
+  </si>
+  <si>
+    <t>"=" 136</t>
+  </si>
+  <si>
+    <t>NA + obs. w/data for fourth visit</t>
+  </si>
+  <si>
+    <t>"=" 8</t>
+  </si>
+  <si>
+    <t>obs. w/data for third visit + NA</t>
+  </si>
+  <si>
+    <t>"=" 1124</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +383,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -488,7 +574,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -612,6 +698,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -657,16 +814,48 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -723,6 +912,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1021,11 +1214,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView topLeftCell="A19" zoomScale="66" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1035,15 +1228,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="F1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="F1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -1229,11 +1422,11 @@
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="3"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="2"/>
       <c r="J17">
         <v>878</v>
       </c>
@@ -1291,11 +1484,11 @@
       </c>
     </row>
     <row r="25" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="3"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="2"/>
     </row>
     <row r="26" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F26" t="s">
@@ -1330,11 +1523,11 @@
       </c>
     </row>
     <row r="31" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="3"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="2"/>
     </row>
     <row r="32" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F32" t="s">
@@ -1353,11 +1546,11 @@
       </c>
     </row>
     <row r="35" spans="6:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="3"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="2"/>
     </row>
     <row r="36" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F36" t="s">
@@ -1386,10 +1579,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="65" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
@@ -1713,4 +1906,365 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33222C6D-D20E-42BF-978E-BFBC0899B194}">
+  <dimension ref="A1:V33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="4.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C7" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="O7" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+    </row>
+    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="N9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="V9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="13"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="13"/>
+    </row>
+    <row r="11" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="N12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="V12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="13"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="13"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="13"/>
+    </row>
+    <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+      <c r="I15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="N15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="7"/>
+      <c r="U15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="V15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="13"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="13"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="13"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="I18" s="16">
+        <f>76+84+1324</f>
+        <v>1484</v>
+      </c>
+      <c r="U18" s="16">
+        <f>1216+44+192</f>
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="C22" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B30" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="7"/>
+      <c r="I30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="13"/>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I33" s="16">
+        <f>1124+136+8</f>
+        <v>1268</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="B27:G28"/>
+    <mergeCell ref="I27:J28"/>
+    <mergeCell ref="B30:G31"/>
+    <mergeCell ref="I30:J31"/>
+    <mergeCell ref="N12:S13"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="N15:S16"/>
+    <mergeCell ref="U15:V16"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="B24:G25"/>
+    <mergeCell ref="I24:J25"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="N9:S10"/>
+    <mergeCell ref="U9:V10"/>
+    <mergeCell ref="A2:G5"/>
+    <mergeCell ref="B9:G10"/>
+    <mergeCell ref="B12:G13"/>
+    <mergeCell ref="B15:G16"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="I15:J16"/>
+    <mergeCell ref="C7:F7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>